--- a/XHSJ/Assets/GameRoot/Config/excel/item.xlsx
+++ b/XHSJ/Assets/GameRoot/Config/excel/item.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
@@ -77,6 +77,33 @@
           </rPr>
           <t xml:space="preserve">
 降低受到的物理伤害</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>HuangJunShan HuangJunShan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+这个值配成1，表示物品只有一个，全体通用的。
+</t>
         </r>
       </text>
     </comment>
@@ -298,12 +325,39 @@
         </r>
       </text>
     </comment>
+    <comment ref="Z2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>HuangJunShan HuangJunShan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+这个值配成1，表示物品只有一个，全体通用的。
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -698,11 +752,31 @@
     <t>不要给装备赋予力量和魔力属性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>universal</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒素附加</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用的</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -1076,40 +1150,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z4827"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA4827"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="7"/>
+    <col min="7" max="7" width="9.140625" style="7"/>
     <col min="8" max="9" width="8" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.1796875" style="7"/>
+    <col min="23" max="23" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16.5">
+    <row r="1" spans="1:27" ht="16.5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1188,8 +1262,11 @@
       <c r="Z1" s="12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="16.5">
+      <c r="AA1" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1268,8 +1345,11 @@
       <c r="Z2" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="15">
+      <c r="AA2" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="10">
         <v>0</v>
       </c>
@@ -1348,8 +1428,11 @@
       <c r="Z3" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="15">
+      <c r="AA3" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -1428,8 +1511,11 @@
       <c r="Z4" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="15">
+      <c r="AA4" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -1508,38 +1594,41 @@
       <c r="Z5" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="13"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:27">
       <c r="A7" s="13"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:27">
       <c r="A8" s="13"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:27">
       <c r="A9" s="13"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:27">
       <c r="A10" s="13"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:27">
       <c r="A11" s="13"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:27">
       <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:27">
       <c r="A13" s="13"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:27">
       <c r="A14" s="13"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:27">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:27">
       <c r="A16" s="13"/>
     </row>
     <row r="17" spans="1:1">
@@ -15984,38 +16073,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.81640625" customWidth="1"/>
-    <col min="8" max="8" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16.5">
+    <row r="1" spans="1:27" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -16091,8 +16184,12 @@
       <c r="Y1" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="15">
+      <c r="Z1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA1" s="9"/>
+    </row>
+    <row r="2" spans="1:27">
       <c r="B2" s="5" t="s">
         <v>29</v>
       </c>
@@ -16162,20 +16259,27 @@
       <c r="X2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="15">
+      <c r="Y2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" s="9"/>
+    </row>
+    <row r="3" spans="1:27">
       <c r="D3" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
